--- a/working-files-data/showcase_create.xlsx
+++ b/working-files-data/showcase_create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SVV6P22AUSER01.vegvesen.no\site_22A_E$\HILAUS\documents\CKAN\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HILAUS\GitHub\svv-ckan-setup\synced_folders\src\svv-ckan-import\working-files-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>trafikkinformasjon</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Bomstasjoner i vegkart på vegvesen.no</t>
   </si>
   <si>
-    <t>bruer - vegkart</t>
-  </si>
-  <si>
     <t>bruksklasser-vegkart</t>
   </si>
   <si>
@@ -322,6 +319,21 @@
   </si>
   <si>
     <t>Test-showcase</t>
+  </si>
+  <si>
+    <t>driftskontrakter</t>
+  </si>
+  <si>
+    <t>driftskontrakter-kart</t>
+  </si>
+  <si>
+    <t>bruer-vegkart</t>
+  </si>
+  <si>
+    <t>http://vegvesen.maps.arcgis.com/apps/SimpleViewer/index.html?appid=f25e30debb814893aa314e57a9891900</t>
+  </si>
+  <si>
+    <t>Driftskontrakter veg - visning i kart</t>
   </si>
 </sst>
 </file>
@@ -1121,9 +1133,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1173,131 +1185,140 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,125 +1326,137 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -1431,115 +1464,100 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
       </c>
       <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
         <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -1547,75 +1565,83 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>90</v>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F31">
-    <sortCondition ref="E2:E31"/>
+    <sortCondition ref="B2:B31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
